--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 7 (46, 28, 13, 50, 51)/MDD 1 (43, 3, 19, 7, 1)/ANN_128nodes_Uniform0.05Virtual_Control(46, 28, 13, 50, 51)_MDD(43, 3, 19, 7, 1)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 7 (46, 28, 13, 50, 51)/MDD 1 (43, 3, 19, 7, 1)/ANN_128nodes_Uniform0.05Virtual_Control(46, 28, 13, 50, 51)_MDD(43, 3, 19, 7, 1)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.43175479984196</v>
+        <v>0.006228626045210847</v>
       </c>
       <c r="E2">
-        <v>0.43175479984196</v>
+        <v>0.006228626045210847</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999999974183216</v>
+        <v>0.9999999999920712</v>
       </c>
       <c r="E3">
-        <v>0.9999999974183216</v>
+        <v>0.9999999999920712</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9775301660896688</v>
+        <v>0.9953874575032584</v>
       </c>
       <c r="E4">
-        <v>0.9775301660896688</v>
+        <v>0.9953874575032584</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>6.004509075733914E-26</v>
+        <v>2.472840588310253E-41</v>
       </c>
       <c r="E5">
-        <v>6.004509075733914E-26</v>
+        <v>2.472840588310253E-41</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9841019622765983</v>
+        <v>0.9976456668290483</v>
       </c>
       <c r="E6">
-        <v>0.9841019622765983</v>
+        <v>0.9976456668290483</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999999996958</v>
+        <v>0.9999999999998348</v>
       </c>
       <c r="E7">
-        <v>3.042011087472929E-13</v>
+        <v>1.652011860642233E-13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9932852454658785</v>
+        <v>0.9922928101930094</v>
       </c>
       <c r="E8">
-        <v>0.006714754534121514</v>
+        <v>0.007707189806990589</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9996155029790269</v>
+        <v>0.9999860414286413</v>
       </c>
       <c r="E9">
-        <v>0.0003844970209730958</v>
+        <v>1.395857135866319E-05</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9999999867647378</v>
+        <v>0.9999999901068849</v>
       </c>
       <c r="E11">
-        <v>1.32352622195242E-08</v>
+        <v>9.893115104908645E-09</v>
       </c>
       <c r="F11">
-        <v>2.828428983688354</v>
+        <v>3.700501203536987</v>
       </c>
       <c r="G11">
         <v>0.7</v>
